--- a/AutomatizacionScoleg/Features/M02 Adm. Usuarios/M02_Adm.Usuarios.xlsx
+++ b/AutomatizacionScoleg/Features/M02 Adm. Usuarios/M02_Adm.Usuarios.xlsx
@@ -1,78 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CAC5EB-B9FC-4782-98F3-5140A87A41E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="M02-0201.0101.INGRESAR.GRUPO" sheetId="1" r:id="rId1"/>
-    <sheet name="M02-0201.0202.EDITAR.GRUPO" sheetId="3" r:id="rId2"/>
-    <sheet name="M02-0202.0101.INGRESAR.PERFIL" sheetId="2" r:id="rId3"/>
-    <sheet name="M02-0202.0202_EDITAR.PERFIL" sheetId="4" r:id="rId4"/>
-    <sheet name="M02-0202.0505_VERDETALLE.PERFIL" sheetId="5" r:id="rId5"/>
-    <sheet name="M02-0202.0303_ELIMINAR.PERFIL" sheetId="6" r:id="rId6"/>
+    <sheet name="INGRESAR.GRUPO" sheetId="2" r:id="rId1"/>
+    <sheet name="EDITAR.GRUPO" sheetId="4" r:id="rId2"/>
+    <sheet name="ELIMINAR.GRUPO" sheetId="5" r:id="rId3"/>
+    <sheet name="VER.DETALLE.GRUPO" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>AutTestDescrip1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
   <si>
     <t>Descripcion</t>
   </si>
   <si>
-    <t>PerfilIngresarAuto</t>
-  </si>
-  <si>
-    <t>Entrada Completa</t>
-  </si>
-  <si>
-    <t>DescripcionPerfil</t>
-  </si>
-  <si>
-    <t>GrupoPerfil</t>
-  </si>
-  <si>
-    <t>DescripciónModificada</t>
-  </si>
-  <si>
-    <t>DescripcionModificar</t>
-  </si>
-  <si>
-    <t>DescripcionEditar</t>
-  </si>
-  <si>
-    <t>GrupoEditar</t>
+    <t>Modulos</t>
+  </si>
+  <si>
+    <t>Informes Operativos</t>
+  </si>
+  <si>
+    <t>DescripcionSearch</t>
+  </si>
+  <si>
+    <t>DescripcionEdit</t>
+  </si>
+  <si>
+    <t>ModulosEdit</t>
+  </si>
+  <si>
+    <t>Listar SGL</t>
+  </si>
+  <si>
+    <t>TestEditAuto1</t>
+  </si>
+  <si>
+    <t>ModulosSearch</t>
+  </si>
+  <si>
+    <t>Facultades</t>
+  </si>
+  <si>
+    <t>TestGrupoAut1</t>
   </si>
   <si>
     <t>SGL</t>
   </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>Grupo v3</t>
-  </si>
-  <si>
-    <t>Test 2 Editado</t>
-  </si>
-  <si>
-    <t>Perfil prueba</t>
-  </si>
-  <si>
-    <t>Usuario 3</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,6 +184,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -232,6 +236,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -407,95 +428,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -503,121 +465,129 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>